--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ntf3-Ntrk3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ntf3-Ntrk3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,55 +525,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>7.310333666666668</v>
+        <v>9.736532333333333</v>
       </c>
       <c r="H2">
-        <v>21.931001</v>
+        <v>29.209597</v>
       </c>
       <c r="I2">
-        <v>0.3571826419504521</v>
+        <v>0.3545698647072128</v>
       </c>
       <c r="J2">
-        <v>0.3571826419504521</v>
+        <v>0.3545698647072129</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.138349</v>
+        <v>2.468673666666667</v>
       </c>
       <c r="N2">
-        <v>0.415047</v>
+        <v>7.406021</v>
       </c>
       <c r="O2">
-        <v>0.04449686021752534</v>
+        <v>0.635345274347677</v>
       </c>
       <c r="P2">
-        <v>0.04449686021752534</v>
+        <v>0.635345274347677</v>
       </c>
       <c r="Q2">
-        <v>1.011377352449667</v>
+        <v>24.03632097594856</v>
       </c>
       <c r="R2">
-        <v>9.102396172047001</v>
+        <v>216.326888783537</v>
       </c>
       <c r="S2">
-        <v>0.01589350609099567</v>
+        <v>0.2252742879678228</v>
       </c>
       <c r="T2">
-        <v>0.01589350609099567</v>
+        <v>0.2252742879678229</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,25 +587,25 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>7.310333666666668</v>
+        <v>9.736532333333333</v>
       </c>
       <c r="H3">
-        <v>21.931001</v>
+        <v>29.209597</v>
       </c>
       <c r="I3">
-        <v>0.3571826419504521</v>
+        <v>0.3545698647072128</v>
       </c>
       <c r="J3">
-        <v>0.3571826419504521</v>
+        <v>0.3545698647072129</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,33 +614,33 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.468673666666667</v>
+        <v>1.416888666666667</v>
       </c>
       <c r="N3">
-        <v>7.406021</v>
+        <v>4.250666</v>
       </c>
       <c r="O3">
-        <v>0.7939936469967431</v>
+        <v>0.364654725652323</v>
       </c>
       <c r="P3">
-        <v>0.793993646996743</v>
+        <v>0.364654725652323</v>
       </c>
       <c r="Q3">
-        <v>18.04682821744678</v>
+        <v>13.79558231573355</v>
       </c>
       <c r="R3">
-        <v>162.421453957021</v>
+        <v>124.160240841602</v>
       </c>
       <c r="S3">
-        <v>0.2836007485261713</v>
+        <v>0.12929557673939</v>
       </c>
       <c r="T3">
-        <v>0.2836007485261713</v>
+        <v>0.12929557673939</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,25 +649,25 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>7.310333666666668</v>
+        <v>10.17625966666667</v>
       </c>
       <c r="H4">
-        <v>21.931001</v>
+        <v>30.528779</v>
       </c>
       <c r="I4">
-        <v>0.3571826419504521</v>
+        <v>0.37058316962423</v>
       </c>
       <c r="J4">
-        <v>0.3571826419504521</v>
+        <v>0.37058316962423</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.5021629999999999</v>
+        <v>2.468673666666667</v>
       </c>
       <c r="N4">
-        <v>1.506489</v>
+        <v>7.406021</v>
       </c>
       <c r="O4">
-        <v>0.1615094927857316</v>
+        <v>0.635345274347677</v>
       </c>
       <c r="P4">
-        <v>0.1615094927857315</v>
+        <v>0.635345274347677</v>
       </c>
       <c r="Q4">
-        <v>3.670979085054333</v>
+        <v>25.12186426426211</v>
       </c>
       <c r="R4">
-        <v>33.03881176548899</v>
+        <v>226.096778378359</v>
       </c>
       <c r="S4">
-        <v>0.05768838733328508</v>
+        <v>0.2354482655735381</v>
       </c>
       <c r="T4">
-        <v>0.05768838733328507</v>
+        <v>0.2354482655735382</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,7 +711,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -720,51 +720,51 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.17625966666666</v>
+        <v>10.17625966666667</v>
       </c>
       <c r="H5">
         <v>30.528779</v>
       </c>
       <c r="I5">
-        <v>0.4972116839874968</v>
+        <v>0.37058316962423</v>
       </c>
       <c r="J5">
-        <v>0.4972116839874969</v>
+        <v>0.37058316962423</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.138349</v>
+        <v>1.416888666666667</v>
       </c>
       <c r="N5">
-        <v>0.415047</v>
+        <v>4.250666</v>
       </c>
       <c r="O5">
-        <v>0.04449686021752534</v>
+        <v>0.364654725652323</v>
       </c>
       <c r="P5">
-        <v>0.04449686021752534</v>
+        <v>0.364654725652323</v>
       </c>
       <c r="Q5">
-        <v>1.407875348623666</v>
+        <v>14.41862699075711</v>
       </c>
       <c r="R5">
-        <v>12.670878137613</v>
+        <v>129.767642916814</v>
       </c>
       <c r="S5">
-        <v>0.02212435880091203</v>
+        <v>0.1351349040506919</v>
       </c>
       <c r="T5">
-        <v>0.02212435880091203</v>
+        <v>0.1351349040506919</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>10.17625966666666</v>
+        <v>7.547331666666667</v>
       </c>
       <c r="H6">
-        <v>30.528779</v>
+        <v>22.641995</v>
       </c>
       <c r="I6">
-        <v>0.4972116839874968</v>
+        <v>0.2748469656685572</v>
       </c>
       <c r="J6">
-        <v>0.4972116839874969</v>
+        <v>0.2748469656685572</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,27 +806,27 @@
         <v>7.406021</v>
       </c>
       <c r="O6">
-        <v>0.7939936469967431</v>
+        <v>0.635345274347677</v>
       </c>
       <c r="P6">
-        <v>0.793993646996743</v>
+        <v>0.635345274347677</v>
       </c>
       <c r="Q6">
-        <v>25.12186426426211</v>
+        <v>18.63189893909945</v>
       </c>
       <c r="R6">
-        <v>226.096778378359</v>
+        <v>167.687090451895</v>
       </c>
       <c r="S6">
-        <v>0.3947829182986248</v>
+        <v>0.174622720806316</v>
       </c>
       <c r="T6">
-        <v>0.3947829182986247</v>
+        <v>0.174622720806316</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>10.17625966666666</v>
+        <v>7.547331666666667</v>
       </c>
       <c r="H7">
-        <v>30.528779</v>
+        <v>22.641995</v>
       </c>
       <c r="I7">
-        <v>0.4972116839874968</v>
+        <v>0.2748469656685572</v>
       </c>
       <c r="J7">
-        <v>0.4972116839874969</v>
+        <v>0.2748469656685572</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,214 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.5021629999999999</v>
+        <v>1.416888666666667</v>
       </c>
       <c r="N7">
-        <v>1.506489</v>
+        <v>4.250666</v>
       </c>
       <c r="O7">
-        <v>0.1615094927857316</v>
+        <v>0.364654725652323</v>
       </c>
       <c r="P7">
-        <v>0.1615094927857315</v>
+        <v>0.364654725652323</v>
       </c>
       <c r="Q7">
-        <v>5.110141082992332</v>
+        <v>10.69372870207444</v>
       </c>
       <c r="R7">
-        <v>45.99126974693099</v>
+        <v>96.24355831867</v>
       </c>
       <c r="S7">
-        <v>0.08030440688796006</v>
+        <v>0.1002242448622411</v>
       </c>
       <c r="T7">
-        <v>0.08030440688796006</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G8">
-        <v>2.980061</v>
-      </c>
-      <c r="H8">
-        <v>8.940182999999999</v>
-      </c>
-      <c r="I8">
-        <v>0.1456056740620511</v>
-      </c>
-      <c r="J8">
-        <v>0.1456056740620512</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>0.138349</v>
-      </c>
-      <c r="N8">
-        <v>0.415047</v>
-      </c>
-      <c r="O8">
-        <v>0.04449686021752534</v>
-      </c>
-      <c r="P8">
-        <v>0.04449686021752534</v>
-      </c>
-      <c r="Q8">
-        <v>0.4122884592889999</v>
-      </c>
-      <c r="R8">
-        <v>3.710596133601</v>
-      </c>
-      <c r="S8">
-        <v>0.006478995325617645</v>
-      </c>
-      <c r="T8">
-        <v>0.006478995325617645</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G9">
-        <v>2.980061</v>
-      </c>
-      <c r="H9">
-        <v>8.940182999999999</v>
-      </c>
-      <c r="I9">
-        <v>0.1456056740620511</v>
-      </c>
-      <c r="J9">
-        <v>0.1456056740620512</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>2.468673666666667</v>
-      </c>
-      <c r="N9">
-        <v>7.406021</v>
-      </c>
-      <c r="O9">
-        <v>0.7939936469967431</v>
-      </c>
-      <c r="P9">
-        <v>0.793993646996743</v>
-      </c>
-      <c r="Q9">
-        <v>7.356798115760332</v>
-      </c>
-      <c r="R9">
-        <v>66.211183041843</v>
-      </c>
-      <c r="S9">
-        <v>0.1156099801719471</v>
-      </c>
-      <c r="T9">
-        <v>0.1156099801719471</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G10">
-        <v>2.980061</v>
-      </c>
-      <c r="H10">
-        <v>8.940182999999999</v>
-      </c>
-      <c r="I10">
-        <v>0.1456056740620511</v>
-      </c>
-      <c r="J10">
-        <v>0.1456056740620512</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0.5021629999999999</v>
-      </c>
-      <c r="N10">
-        <v>1.506489</v>
-      </c>
-      <c r="O10">
-        <v>0.1615094927857316</v>
-      </c>
-      <c r="P10">
-        <v>0.1615094927857315</v>
-      </c>
-      <c r="Q10">
-        <v>1.496476371943</v>
-      </c>
-      <c r="R10">
-        <v>13.468287347487</v>
-      </c>
-      <c r="S10">
-        <v>0.02351669856448643</v>
-      </c>
-      <c r="T10">
-        <v>0.02351669856448643</v>
+        <v>0.1002242448622411</v>
       </c>
     </row>
   </sheetData>
